--- a/artfynd/A 61676-2025 artfynd.xlsx
+++ b/artfynd/A 61676-2025 artfynd.xlsx
@@ -1135,7 +1135,7 @@
         <v>130798820</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
